--- a/sgRNA-insert pairs design/Example_Data/alaA_mutations.xlsx
+++ b/sgRNA-insert pairs design/Example_Data/alaA_mutations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/kxmts01_cloud_uni-tuebingen_de/Documents/Dokumente/GitHub/CREATE_WebApplicaltion/sgRNA-insert pairs design/Example_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_6A69D6BF87905768E7B93411598328B1640BEF3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{126F8084-BEB5-4B8B-A2D0-27721C4D4CC9}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_6A69D6BF87905768E7B93411598328B1640BEF3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692A7D81-0472-424A-9BBE-74DA556DCD80}"/>
   <bookViews>
-    <workbookView xWindow="-23850" yWindow="2355" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -656,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,13 +728,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,13 +742,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,13 +756,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,13 +798,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,13 +812,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,13 +840,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,13 +896,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -908,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,13 +924,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -936,13 +938,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -950,13 +952,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -964,13 +966,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -992,13 +994,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1006,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,13 +1022,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,13 +1050,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1076,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1104,13 +1106,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1118,10 +1120,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1132,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1146,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,10 +1162,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1174,13 +1176,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1202,16 +1204,19 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+    <sortCondition ref="C1:C41"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sgRNA-insert pairs design/Example_Data/alaA_mutations.xlsx
+++ b/sgRNA-insert pairs design/Example_Data/alaA_mutations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/kxmts01_cloud_uni-tuebingen_de/Documents/Dokumente/GitHub/CREATE_WebApplicaltion/sgRNA-insert pairs design/Example_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_6A69D6BF87905768E7B93411598328B1640BEF3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692A7D81-0472-424A-9BBE-74DA556DCD80}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_6A69D6BF87905768E7B93411598328B1640BEF3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEAC7817-E669-4741-B159-73609FF296D3}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,13 +966,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,13 +1022,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
